--- a/data_sample/ice_cores/testing-nogap_noextremity-TS.xlsx
+++ b/data_sample/ice_cores/testing-nogap_noextremity-TS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="1" state="visible" r:id="rId2"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="125">
   <si>
     <t xml:space="preserve">date and time</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t xml:space="preserve">testing-gap_extremity-TS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testing-gap_noextremity-TS</t>
   </si>
   <si>
     <t xml:space="preserve">observer</t>
@@ -695,8 +698,8 @@
   </sheetPr>
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -914,15 +917,18 @@
       <c r="E22" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="F22" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -930,12 +936,12 @@
     </row>
     <row r="26" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
@@ -945,7 +951,7 @@
     </row>
     <row r="28" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="1" t="s">
@@ -954,7 +960,7 @@
     </row>
     <row r="29" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>14</v>
@@ -962,21 +968,21 @@
     </row>
     <row r="30" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -1011,8 +1017,8 @@
   </sheetPr>
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E31" activeCellId="0" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1027,7 +1033,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>25</v>
@@ -1035,7 +1041,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>12</v>
@@ -1046,16 +1052,16 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -1069,50 +1075,50 @@
     </row>
     <row r="5" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="10"/>
       <c r="D6" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1126,25 +1132,25 @@
         <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H7" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1186,7 +1192,7 @@
         <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K10" s="1" t="n">
         <v>5.3</v>
@@ -1217,7 +1223,7 @@
         <v>5</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K12" s="1" t="n">
         <v>5.3</v>
@@ -1234,7 +1240,7 @@
         <v>5</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K13" s="1" t="n">
         <v>5.2</v>
@@ -1251,7 +1257,7 @@
         <v>5</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K14" s="1" t="n">
         <v>6.4</v>
@@ -1268,7 +1274,7 @@
         <v>5</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K15" s="1" t="n">
         <v>8.3</v>
@@ -1326,7 +1332,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="1" t="s">
@@ -1335,7 +1341,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>12</v>
@@ -1346,35 +1352,35 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B3" s="10"/>
     </row>
     <row r="4" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C6" s="12"/>
     </row>
@@ -1383,10 +1389,10 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1405,7 +1411,7 @@
         <v>-1.9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1465,7 +1471,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -1473,10 +1479,10 @@
     </row>
     <row r="2" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
@@ -1484,113 +1490,113 @@
     <row r="3" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="10"/>
       <c r="B3" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C6" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C7" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1630,31 +1636,31 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1689,68 +1695,68 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C3" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C5" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1758,7 +1764,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/data_sample/ice_cores/testing-nogap_noextremity-TS.xlsx
+++ b/data_sample/ice_cores/testing-nogap_noextremity-TS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="1" state="visible" r:id="rId2"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="121">
   <si>
     <t xml:space="preserve">date and time</t>
   </si>
@@ -236,18 +236,6 @@
   </si>
   <si>
     <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">green particulate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oil sheen on surface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ice bottom, no oil</t>
   </si>
   <si>
     <t xml:space="preserve">depth</t>
@@ -699,7 +687,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
+      <selection pane="topLeft" activeCell="D39" activeCellId="0" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1017,8 +1005,8 @@
   </sheetPr>
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E31" activeCellId="0" sqref="E31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M23" activeCellId="0" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1163,9 +1151,6 @@
       <c r="D8" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="K8" s="1" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
@@ -1177,9 +1162,6 @@
       <c r="D9" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="K9" s="1" t="n">
-        <v>4.4</v>
-      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
@@ -1191,12 +1173,6 @@
       <c r="D10" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K10" s="1" t="n">
-        <v>5.3</v>
-      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
@@ -1208,9 +1184,6 @@
       <c r="D11" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="K11" s="1" t="n">
-        <v>3.7</v>
-      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
@@ -1222,12 +1195,6 @@
       <c r="D12" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K12" s="1" t="n">
-        <v>5.3</v>
-      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
@@ -1239,12 +1206,6 @@
       <c r="D13" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K13" s="1" t="n">
-        <v>5.2</v>
-      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
@@ -1256,12 +1217,6 @@
       <c r="D14" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K14" s="1" t="n">
-        <v>6.4</v>
-      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
@@ -1273,12 +1228,6 @@
       <c r="D15" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K15" s="1" t="n">
-        <v>8.3</v>
-      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
@@ -1291,14 +1240,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1318,8 +1271,8 @@
   </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B47" activeCellId="0" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1366,10 +1319,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>36</v>
@@ -1377,10 +1330,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C6" s="12"/>
     </row>
@@ -1411,7 +1364,7 @@
         <v>-1.9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1471,7 +1424,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -1479,10 +1432,10 @@
     </row>
     <row r="2" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
@@ -1490,113 +1443,113 @@
     <row r="3" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="10"/>
       <c r="B3" s="10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C6" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C7" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1636,31 +1589,31 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1695,68 +1648,68 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C3" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C5" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1764,7 +1717,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/data_sample/ice_cores/testing-nogap_noextremity-TS.xlsx
+++ b/data_sample/ice_cores/testing-nogap_noextremity-TS.xlsx
@@ -1272,7 +1272,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B47" activeCellId="0" sqref="B47"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/data_sample/ice_cores/testing-nogap_noextremity-TS.xlsx
+++ b/data_sample/ice_cores/testing-nogap_noextremity-TS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="1" state="visible" r:id="rId2"/>
@@ -686,8 +686,8 @@
   </sheetPr>
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D39" activeCellId="0" sqref="D39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1006,7 +1006,7 @@
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M23" activeCellId="0" sqref="M23"/>
+      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1234,7 +1234,7 @@
         <v>0.4</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>0.425</v>
+        <v>0.42</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>20</v>
@@ -1271,8 +1271,8 @@
   </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1300,7 +1300,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>0.425</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1358,7 +1358,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
-        <v>0.425</v>
+        <v>0.42</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>-1.9</v>
